--- a/biology/Médecine/Détachement_d'intervention_catastrophes_aéromobile/Détachement_d'intervention_catastrophes_aéromobile.xlsx
+++ b/biology/Médecine/Détachement_d'intervention_catastrophes_aéromobile/Détachement_d'intervention_catastrophes_aéromobile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9tachement_d%27intervention_catastrophes_a%C3%A9romobile</t>
+          <t>Détachement_d'intervention_catastrophes_aéromobile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un détachement d'intervention catastrophes aéromobile (dica) est une unité française de sécurité civile susceptible d'intervenir en cas de catastrophe qu'elle soit d'origine naturelle (séisme, ouragan…) ou d'origine humaine (industrielle, transport…), en France comme à l'étranger.
 Ce sont des forces « projetables », c'est-à-dire que les matériels sont conditionnés, et les personnels sont préparés, pour un transport par avion, permettant d'être sur les lieux de la catastrophe en quelques heures ou dizaines d'heures.
